--- a/标定.xlsx
+++ b/标定.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RM\哨兵\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC9158-F609-471E-82A8-8AB9CECFA494}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11355" windowHeight="7530"/>
+    <workbookView xWindow="1152" yWindow="12" windowWidth="15972" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="925">
   <si>
     <t>10cf</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2759,12 +2765,71 @@
   </si>
   <si>
     <t>6510</t>
+  </si>
+  <si>
+    <t>65.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-24.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-18.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2804,7 +2869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2812,6 +2877,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5542,6 +5610,395 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$40:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$40:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-24.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F35-4ABB-9753-6889123FEA60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="633734840"/>
+        <c:axId val="633735480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="633734840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633735480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633735480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633734840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5623,6 +6080,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7210,6 +7707,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7227,7 +8240,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7257,7 +8276,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7287,7 +8312,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7297,6 +8328,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62264F-5856-45F4-A5E2-9BDFB4F30CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7601,29 +8668,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:SG30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:SG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:F29"/>
+    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:501" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:501" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:501" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:501" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -9128,7 +10195,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>332</v>
       </c>
@@ -10633,7 +11700,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="5" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="JY5" s="2">
         <f t="shared" ref="JY5:LI6" si="0">HEX2DEC(JY3)</f>
         <v>65512</v>
@@ -11503,7 +12570,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="6" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="JY6" s="2">
         <f t="shared" si="0"/>
         <v>7593</v>
@@ -12373,8 +13440,8 @@
         <v>25872</v>
       </c>
     </row>
-    <row r="7" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G8" s="2">
         <f t="shared" ref="G8:BR8" si="4">HEX2DEC(G3)</f>
         <v>4303</v>
@@ -13488,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G9" s="2">
         <f t="shared" ref="G9:BR9" si="9">HEX2DEC(G4)</f>
         <v>10186</v>
@@ -14602,8 +15669,8 @@
         <v>7606</v>
       </c>
     </row>
-    <row r="10" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O12" s="2">
         <f t="shared" ref="O12:BR12" si="14">O9/100-76.06</f>
         <v>25.319999999999993</v>
@@ -15685,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O13" s="2">
         <f t="shared" ref="O13:BZ13" si="19">O8/100</f>
         <v>42.6</v>
@@ -16767,16 +17834,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:501" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -16787,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="2">
         <v>27.4</v>
       </c>
@@ -16798,7 +17865,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="25" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <v>18.2</v>
       </c>
@@ -16809,7 +17876,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="26" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <v>3.5</v>
       </c>
@@ -16820,7 +17887,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <v>-4.46</v>
       </c>
@@ -16831,7 +17898,7 @@
         <v>-4.46</v>
       </c>
     </row>
-    <row r="28" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <v>-13.1</v>
       </c>
@@ -16842,7 +17909,7 @@
         <v>-13.1</v>
       </c>
     </row>
-    <row r="29" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <v>-22.6</v>
       </c>
@@ -16853,7 +17920,107 @@
         <v>-22.6</v>
       </c>
     </row>
-    <row r="30" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="F40" s="2">
+        <v>65.3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-24.8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="F41" s="2">
+        <v>59.3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>-18.16</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F42" s="2">
+        <v>50.6</v>
+      </c>
+      <c r="G42" s="2">
+        <v>-8.65</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45.33</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-2.88</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="F44" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F45" s="2">
+        <v>29.97</v>
+      </c>
+      <c r="G45" s="2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
+        <v>22.83</v>
+      </c>
+      <c r="G46" s="2">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/标定.xlsx
+++ b/标定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RM\哨兵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC9158-F609-471E-82A8-8AB9CECFA494}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D3070-5850-413C-BBCA-10E44106225A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="12" windowWidth="15972" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="911">
   <si>
     <t>10cf</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2765,62 +2765,6 @@
   </si>
   <si>
     <t>6510</t>
-  </si>
-  <si>
-    <t>65.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45.33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-24.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-18.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-8.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29.97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5747,60 +5691,30 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$40:$F$46</c:f>
+              <c:f>Sheet1!$C$39:$D$39</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>65.3</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.83</c:v>
+                  <c:v>-19.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$40:$G$46</c:f>
+              <c:f>Sheet1!$C$40:$D$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-24.8</c:v>
+                  <c:v>154.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-8.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.88</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5808,7 +5722,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F35-4ABB-9753-6889123FEA60}"/>
+              <c16:uniqueId val="{00000000-2DC1-4034-A64A-D40C5E6FABC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5820,11 +5734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="633734840"/>
-        <c:axId val="633735480"/>
+        <c:axId val="235323192"/>
+        <c:axId val="235323512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="633734840"/>
+        <c:axId val="235323192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5844,7 +5758,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5881,12 +5795,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633735480"/>
+        <c:crossAx val="235323512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="633735480"/>
+        <c:axId val="235323512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5906,7 +5820,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5943,7 +5857,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633734840"/>
+        <c:crossAx val="235323192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8335,23 +8249,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6">
+        <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD62264F-5856-45F4-A5E2-9BDFB4F30CF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80759504-0E01-490C-AE2F-1299BB9AAA76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8672,7 +8586,7 @@
   <dimension ref="A1:SG46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17922,19 +17836,19 @@
     </row>
     <row r="30" spans="4:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>918</v>
+      <c r="C39" s="3">
+        <v>177</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-19.3</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>919</v>
+      <c r="C40" s="3">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>21.5</v>
       </c>
       <c r="F40" s="2">
         <v>65.3</v>
@@ -17944,12 +17858,8 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>920</v>
-      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="F41" s="2">
         <v>59.3</v>
       </c>
@@ -17958,12 +17868,8 @@
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>915</v>
-      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="F42" s="2">
         <v>50.6</v>
       </c>
@@ -17972,12 +17878,11 @@
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>917</v>
-      </c>
+      <c r="C43" s="3">
+        <f>1/0.6765</f>
+        <v>1.4781966001478197</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="F43" s="2">
         <v>45.33</v>
       </c>
@@ -17986,12 +17891,8 @@
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>922</v>
-      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="F44" s="2">
         <v>37.4</v>
       </c>
@@ -18000,12 +17901,8 @@
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>924</v>
-      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="F45" s="2">
         <v>29.97</v>
       </c>

--- a/标定.xlsx
+++ b/标定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RM\哨兵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D3070-5850-413C-BBCA-10E44106225A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BBE8AB-5D54-45EF-A19C-FF9775D0727C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="12" windowWidth="15972" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="916">
   <si>
     <t>10cf</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2765,6 +2765,26 @@
   </si>
   <si>
     <t>6510</t>
+  </si>
+  <si>
+    <t>26.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5913,6 +5933,308 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E957-4421-84BE-8B4B6318111C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="625982776"/>
+        <c:axId val="625985656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="625982776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625985656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="625985656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625982776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6034,6 +6356,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8137,6 +8499,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8278,6 +9156,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DAB94D-3FB1-4315-8A1A-36EBA5F627D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8583,10 +9497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:SG46"/>
+  <dimension ref="A1:SG53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17918,6 +18832,25 @@
         <v>22</v>
       </c>
     </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
